--- a/InputDisplacingAbatement/Make_data/FinalGoods.xlsx
+++ b/InputDisplacingAbatement/Make_data/FinalGoods.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxj477\Documents\GitHub\abatement\Model_Abatement\Make_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxj477\Documents\GitHub\Abatement_project\InputDisplacingAbatement\Make_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mu" sheetId="1" r:id="rId1"/>
-    <sheet name="sigma" sheetId="2" r:id="rId2"/>
+    <sheet name="q" sheetId="3" r:id="rId2"/>
+    <sheet name="sigma" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>K</t>
   </si>
@@ -55,6 +56,9 @@
   </si>
   <si>
     <t>mu</t>
+  </si>
+  <si>
+    <t>q</t>
   </si>
 </sst>
 </file>
@@ -374,7 +378,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -439,6 +445,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>

--- a/InputDisplacingAbatement/Make_data/FinalGoods.xlsx
+++ b/InputDisplacingAbatement/Make_data/FinalGoods.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="mu" sheetId="1" r:id="rId1"/>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +514,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputDisplacingAbatement/Make_data/FinalGoods.xlsx
+++ b/InputDisplacingAbatement/Make_data/FinalGoods.xlsx
@@ -514,7 +514,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
